--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-11/2b_build_manu.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-11/2b_build_manu.xlsx
@@ -56,7 +56,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] The Factory will produce materials and some resources. In the beginning you should produce Pure Gold and sell them for &lt;@tu.kw&gt;LMD&lt;/&gt;, or &lt;@tu.kw&gt;Combat Records&lt;/&gt; for your Operators.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] The Factory will produce materials and some resources. In the beginning you should produce Pure Gold and sell them for &lt;@tu.kw&gt;LMD&lt;/&gt;, or &lt;@tu.kw&gt;Battle Records&lt;/&gt; for your Operators.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-11/2b_build_manu.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-11/2b_build_manu.xlsx
@@ -68,7 +68,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] 제조소에선 재료나 자원을 제조할 수 있어. 처음에는 &lt;@tu.kw&gt;용문폐&lt;/&gt;와 교환할 수 있는 순금이나 오퍼레이터 강화에 쓰이는 &lt;@tu.kw&gt;작전 기록&lt;/&gt; 같은 걸 얻을 수 있지.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] 제조소에선 재료나 자원을 제조할 수 있어. 처음에는 &lt;@tu.kw&gt;용문폐&lt;/&gt;와 교환할 수 있는 순금이나 오퍼레이터 강화에 쓰이는 &lt;@tu.kw&gt;작전기록&lt;/&gt; 같은 걸 얻을 수 있지.
 </t>
   </si>
   <si>
